--- a/Data/EC/NIT-9007819395.xlsx
+++ b/Data/EC/NIT-9007819395.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81FE19C-F753-4F62-8BA0-850C4E93EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96780825-80BA-47E3-83AD-13F8DF659FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA87CD74-260C-42DC-99AE-C02D95BA9D55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CE8CA996-F6DA-4590-8662-C4D06F74B7C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="109">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,136 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143375552</t>
-  </si>
-  <si>
-    <t>JOHARY DEL CARMEN GOMEZ HOYOS</t>
+    <t>1043301631</t>
+  </si>
+  <si>
+    <t>JESSICA PATRICIA GOMEZ COLON</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
   <si>
     <t>2011</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>1050946843</t>
   </si>
   <si>
     <t>ELSIE CECILIA HARVEY MORALES</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
   </si>
   <si>
     <t>18777418</t>
@@ -98,259 +203,133 @@
     <t>JORGE ARTURO GOMEZ PEREZ</t>
   </si>
   <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1062955625</t>
+  </si>
+  <si>
+    <t>KAROLL VANESSA DORIA REYES</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1001804035</t>
-  </si>
-  <si>
-    <t>DANIELA SMITH ROSADO MOSQUERA</t>
-  </si>
-  <si>
-    <t>1143381866</t>
-  </si>
-  <si>
-    <t>NAUDIT VILORIA TORRES</t>
-  </si>
-  <si>
-    <t>1047470235</t>
-  </si>
-  <si>
-    <t>BEYDIS HELENA ESTRADA FLOREZ</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1043301631</t>
-  </si>
-  <si>
-    <t>JESSICA PATRICIA GOMEZ COLON</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1062955625</t>
-  </si>
-  <si>
-    <t>KAROLL VANESSA DORIA REYES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -449,7 +428,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -462,9 +443,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -664,23 +643,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,10 +687,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5EEF18-1274-C312-4C35-2863B8328721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2914B4F1-B86D-CF32-B86D-54A48E6FBD20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,8 +1094,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF58C6-27BC-4501-9BBE-D0F991937C4D}">
-  <dimension ref="B2:J173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC478219-4D4B-4679-8EF4-0145C2E2D1E6}">
+  <dimension ref="B2:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1127,7 +1106,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1140,7 +1119,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1185,7 +1164,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1217,12 +1196,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5399263</v>
+        <v>4676184</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1233,17 +1212,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1270,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1293,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>3600</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1307,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1330,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1353,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1376,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>13325</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1399,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1422,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1445,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1468,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1491,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1514,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1537,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1560,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1583,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1606,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1629,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1652,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1675,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1698,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1721,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1744,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1767,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1790,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1813,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1836,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1859,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1882,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1905,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1928,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1951,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1974,19 +1953,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1997,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2020,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2043,16 +2022,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>13325</v>
       </c>
       <c r="G49" s="18">
         <v>1000000</v>
@@ -2066,19 +2045,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2089,16 +2068,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
         <v>1000000</v>
@@ -2112,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2135,16 +2114,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G53" s="18">
         <v>1000000</v>
@@ -2158,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2181,16 +2160,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
         <v>1000000</v>
@@ -2204,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2227,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2250,19 +2229,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2273,19 +2252,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2296,13 +2275,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>6667</v>
@@ -2319,19 +2298,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2342,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2365,19 +2344,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2388,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2411,19 +2390,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2434,19 +2413,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2457,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2480,19 +2459,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2503,19 +2482,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2526,19 +2505,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2549,19 +2528,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2572,19 +2551,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2595,19 +2574,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2618,19 +2597,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2641,19 +2620,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F75" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2664,19 +2643,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2687,19 +2666,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2710,19 +2689,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F78" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2733,19 +2712,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F79" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2756,19 +2735,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F80" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2779,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2802,19 +2781,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2825,13 +2804,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2848,19 +2827,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2871,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2894,19 +2873,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2917,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2940,19 +2919,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2963,13 +2942,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2986,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3009,13 +2988,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3032,19 +3011,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3055,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3078,19 +3057,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3101,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3124,19 +3103,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3147,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3170,19 +3149,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D98" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3193,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3216,19 +3195,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3239,13 +3218,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3262,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3285,13 +3264,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3308,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3331,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3354,19 +3333,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3377,13 +3356,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3400,19 +3379,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3423,13 +3402,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3446,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3469,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3492,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3515,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3538,19 +3517,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3561,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3584,19 +3563,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3607,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3630,19 +3609,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3653,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3676,19 +3655,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3699,13 +3678,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3722,19 +3701,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3745,13 +3724,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3768,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3791,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3814,19 +3793,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3837,13 +3816,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3860,19 +3839,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3883,19 +3862,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3906,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3929,19 +3908,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3952,19 +3931,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3975,13 +3954,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3998,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4021,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4044,13 +4023,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4067,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4090,19 +4069,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4113,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4136,19 +4115,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4159,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4182,13 +4161,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4205,19 +4184,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4228,19 +4207,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4251,13 +4230,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4274,19 +4253,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4297,19 +4276,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4320,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4339,470 +4318,56 @@
       <c r="J148" s="20"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F149" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G149" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G150" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F151" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G151" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F152" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G152" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="B149" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F149" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G149" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F154" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G154" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="B154" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="H154" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G155" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F156" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G156" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F157" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G157" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F158" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G158" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F159" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G159" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F160" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G160" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F161" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F162" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F163" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G163" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F164" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F165" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G165" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G166" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G167" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="26"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C172" s="32"/>
-      <c r="H172" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="H173" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="B155" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="H155" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="H154:J154"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
